--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>0.320450384743111</v>
+        <v>0.3153981183286666</v>
       </c>
       <c r="R2">
-        <v>2.884053462688</v>
+        <v>2.838583064958</v>
       </c>
       <c r="S2">
-        <v>0.1790035883352208</v>
+        <v>0.1766833786845485</v>
       </c>
       <c r="T2">
-        <v>0.1790035883352208</v>
+        <v>0.1766833786845485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
         <v>1.058780538854889</v>
       </c>
       <c r="R3">
-        <v>9.529024849693997</v>
+        <v>9.529024849694</v>
       </c>
       <c r="S3">
-        <v>0.5914348202966174</v>
+        <v>0.5931199712973236</v>
       </c>
       <c r="T3">
-        <v>0.5914348202966174</v>
+        <v>0.5931199712973236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
         <v>0.3990074119968888</v>
       </c>
       <c r="R4">
-        <v>3.591066707971999</v>
+        <v>3.591066707972</v>
       </c>
       <c r="S4">
-        <v>0.2228855445970201</v>
+        <v>0.2235206032469864</v>
       </c>
       <c r="T4">
-        <v>0.2228855445970201</v>
+        <v>0.2235206032469864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J5">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>0.002153720092444444</v>
+        <v>0.002119764234666666</v>
       </c>
       <c r="R5">
-        <v>0.019383480832</v>
+        <v>0.019077878112</v>
       </c>
       <c r="S5">
-        <v>0.001203068066609669</v>
+        <v>0.001187474132630334</v>
       </c>
       <c r="T5">
-        <v>0.001203068066609669</v>
+        <v>0.001187474132630334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J6">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
-        <v>0.007115974979555555</v>
+        <v>0.007115974979555556</v>
       </c>
       <c r="R6">
         <v>0.064043774816</v>
       </c>
       <c r="S6">
-        <v>0.003974983699474174</v>
+        <v>0.00398630945766271</v>
       </c>
       <c r="T6">
-        <v>0.003974983699474175</v>
+        <v>0.00398630945766271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,7 +853,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J7">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>0.002681695267555555</v>
@@ -880,10 +880,10 @@
         <v>0.024135257408</v>
       </c>
       <c r="S7">
-        <v>0.001497995005057781</v>
+        <v>0.00150226318084858</v>
       </c>
       <c r="T7">
-        <v>0.001497995005057781</v>
+        <v>0.00150226318084858</v>
       </c>
     </row>
   </sheetData>
